--- a/Forms/ReportTemplates/Dietitian.xlsx
+++ b/Forms/ReportTemplates/Dietitian.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\Report Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCD7571-C096-43B1-BF9F-A251BA3F50BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C36A7E-6FA7-4E67-9537-E2F05D259E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
   </bookViews>
@@ -35,9 +35,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Doctor's Consult</t>
-  </si>
-  <si>
     <t>dietitianQ1</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>Does patient require urgent follow up?</t>
+  </si>
+  <si>
+    <t>Dietitian</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -455,16 +455,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -472,16 +472,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Forms/ReportTemplates/Dietitian.xlsx
+++ b/Forms/ReportTemplates/Dietitian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C36A7E-6FA7-4E67-9537-E2F05D259E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FA5F59-E2BD-4E9F-B41C-CB6B69F13572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,38 +450,35 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
